--- a/openCV RA/nombres_proyectos.xlsx
+++ b/openCV RA/nombres_proyectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\openCV RA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D72D7-5EE6-4CA9-BE0C-8CA0CAB7EACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE9DA27-E1A2-4008-B1D1-14BCFED28152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A22A92E-AB29-4E0F-A5FF-CD87585B7E71}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9858" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="1755">
   <si>
     <t>PROJECT</t>
   </si>
@@ -5059,6 +5059,249 @@
   </si>
   <si>
     <t>OTHERS</t>
+  </si>
+  <si>
+    <t>PF080A_1</t>
+  </si>
+  <si>
+    <t>PF080B_1</t>
+  </si>
+  <si>
+    <t>PF100A_1</t>
+  </si>
+  <si>
+    <t>PF100B_1</t>
+  </si>
+  <si>
+    <t>PF170-1_</t>
+  </si>
+  <si>
+    <t>PF180A_1</t>
+  </si>
+  <si>
+    <t>PF180B_1</t>
+  </si>
+  <si>
+    <t>PF180C_1</t>
+  </si>
+  <si>
+    <t>PF180D_1</t>
+  </si>
+  <si>
+    <t>PF180E_1</t>
+  </si>
+  <si>
+    <t>PF180F_1</t>
+  </si>
+  <si>
+    <t>PF180G_1</t>
+  </si>
+  <si>
+    <t>PF200A_2</t>
+  </si>
+  <si>
+    <t>PF210A_3</t>
+  </si>
+  <si>
+    <t>PF200B_2</t>
+  </si>
+  <si>
+    <t>PF210B_3</t>
+  </si>
+  <si>
+    <t>PF220B_4</t>
+  </si>
+  <si>
+    <t>PF230B_5</t>
+  </si>
+  <si>
+    <t>PF240B_6</t>
+  </si>
+  <si>
+    <t>PF250B_7</t>
+  </si>
+  <si>
+    <t>PF260B_8</t>
+  </si>
+  <si>
+    <t>PF200C_2</t>
+  </si>
+  <si>
+    <t>PF210C_3</t>
+  </si>
+  <si>
+    <t>PF220C_4</t>
+  </si>
+  <si>
+    <t>PF230C_5</t>
+  </si>
+  <si>
+    <t>PF240C_6</t>
+  </si>
+  <si>
+    <t>PF250C_7</t>
+  </si>
+  <si>
+    <t>PF260C_8</t>
+  </si>
+  <si>
+    <t>PF270C_9A</t>
+  </si>
+  <si>
+    <t>PF270C_9B</t>
+  </si>
+  <si>
+    <t>PF200D_2</t>
+  </si>
+  <si>
+    <t>PF210D_3</t>
+  </si>
+  <si>
+    <t>PF220D_4</t>
+  </si>
+  <si>
+    <t>PF230D_5</t>
+  </si>
+  <si>
+    <t>PF240D_6</t>
+  </si>
+  <si>
+    <t>PF250D_7</t>
+  </si>
+  <si>
+    <t>PF260D_8</t>
+  </si>
+  <si>
+    <t>PF270D_9</t>
+  </si>
+  <si>
+    <t>PF200E_2</t>
+  </si>
+  <si>
+    <t>PF210E_3</t>
+  </si>
+  <si>
+    <t>PF220E_4</t>
+  </si>
+  <si>
+    <t>PF230E_5</t>
+  </si>
+  <si>
+    <t>PF240E_6</t>
+  </si>
+  <si>
+    <t>PF250E_7</t>
+  </si>
+  <si>
+    <t>PF260E_8</t>
+  </si>
+  <si>
+    <t>PF270E_9</t>
+  </si>
+  <si>
+    <t>PF200F_2</t>
+  </si>
+  <si>
+    <t>PF210F_3</t>
+  </si>
+  <si>
+    <t>PF220F_4</t>
+  </si>
+  <si>
+    <t>PF230F_5</t>
+  </si>
+  <si>
+    <t>PF245F_6</t>
+  </si>
+  <si>
+    <t>PF200G_2</t>
+  </si>
+  <si>
+    <t>PF210G_3</t>
+  </si>
+  <si>
+    <t>PF220G_4</t>
+  </si>
+  <si>
+    <t>PF230G_5</t>
+  </si>
+  <si>
+    <t>PF245G_6</t>
+  </si>
+  <si>
+    <t>PF245H_6</t>
+  </si>
+  <si>
+    <t>PF300A_1</t>
+  </si>
+  <si>
+    <t>PF300B_1</t>
+  </si>
+  <si>
+    <t>PF320_1</t>
+  </si>
+  <si>
+    <t>PF320_2</t>
+  </si>
+  <si>
+    <t>PF320_3</t>
+  </si>
+  <si>
+    <t>PF320_4</t>
+  </si>
+  <si>
+    <t>PF320_5</t>
+  </si>
+  <si>
+    <t>PF320_6</t>
+  </si>
+  <si>
+    <t>PF320_7</t>
+  </si>
+  <si>
+    <t>PF320_8</t>
+  </si>
+  <si>
+    <t>PF320_9</t>
+  </si>
+  <si>
+    <t>TABLE 01 PREFAB</t>
+  </si>
+  <si>
+    <t>PF210Ba_3</t>
+  </si>
+  <si>
+    <t>PF210Bb_3</t>
+  </si>
+  <si>
+    <t>PF225H_4</t>
+  </si>
+  <si>
+    <t>PF310_1</t>
+  </si>
+  <si>
+    <t>PF310_2</t>
+  </si>
+  <si>
+    <t>PF310_3</t>
+  </si>
+  <si>
+    <t>PF310_4</t>
+  </si>
+  <si>
+    <t>PF310_5</t>
+  </si>
+  <si>
+    <t>PF310_6</t>
+  </si>
+  <si>
+    <t>PF310_7</t>
+  </si>
+  <si>
+    <t>PF310_8</t>
+  </si>
+  <si>
+    <t>PF310_9</t>
   </si>
 </sst>
 </file>
@@ -5146,8 +5389,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6536D25C-6E52-4976-9B8E-933A49DCB1AD}" name="Table1" displayName="Table1" ref="A1:D1233" totalsRowShown="0">
-  <autoFilter ref="A1:D1233" xr:uid="{6536D25C-6E52-4976-9B8E-933A49DCB1AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6536D25C-6E52-4976-9B8E-933A49DCB1AD}" name="Table1" displayName="Table1" ref="A1:D1361" totalsRowShown="0">
+  <autoFilter ref="A1:D1361" xr:uid="{6536D25C-6E52-4976-9B8E-933A49DCB1AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4EE3851B-1607-4B9C-B099-F00181349BE4}" name="PROJECT"/>
     <tableColumn id="2" xr3:uid="{19D000C1-05FB-40DB-A182-D30674CF2CC5}" name="SIDE"/>
@@ -5488,16 +5731,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F80B19F-CCA2-421C-BC55-C926F84F9A86}">
-  <dimension ref="A1:D1233"/>
+  <dimension ref="A1:D1361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A1307" workbookViewId="0">
+      <selection activeCell="D1361" sqref="D1361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22761,6 +23004,1798 @@
       </c>
       <c r="D1233" t="s">
         <v>1116</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
